--- a/RecallVsPrecision.xlsx
+++ b/RecallVsPrecision.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romain.capocasa\Documents\InfData\InfDataLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD10225-98D4-49B1-9B25-0E9C65ADBDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB6DF45-E1B2-473F-89F7-A2E43EF42F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A1DD393-CAF5-43A1-94D9-C8BEC9791A49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A1DD393-CAF5-43A1-94D9-C8BEC9791A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil6" sheetId="7" r:id="rId4"/>
+    <sheet name="Feuil7" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,151 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>0.39371958911568916</t>
-  </si>
-  <si>
-    <t>0.3091689187015161</t>
-  </si>
-  <si>
-    <t>0.22835289827251581</t>
-  </si>
-  <si>
-    <t>0.15667026366031264</t>
-  </si>
-  <si>
-    <t>0.12378877623771851</t>
-  </si>
-  <si>
-    <t>0.1084157234018547</t>
-  </si>
-  <si>
-    <t>0.07241427290708932</t>
-  </si>
-  <si>
-    <t>0.05492856134561633</t>
-  </si>
-  <si>
-    <t>0.04745024256452802</t>
-  </si>
-  <si>
-    <t>0.041928736736241215</t>
-  </si>
-  <si>
-    <t>0.03939797142079041</t>
-  </si>
-  <si>
-    <t>0.4288411695118541</t>
-  </si>
-  <si>
-    <t>0.31401351262272564</t>
-  </si>
-  <si>
-    <t>0.22690692798608092</t>
-  </si>
-  <si>
-    <t>0.1834885142849792</t>
-  </si>
-  <si>
-    <t>0.15169830443047222</t>
-  </si>
-  <si>
-    <t>0.119734741919341</t>
-  </si>
-  <si>
-    <t>0.09955039134529094</t>
-  </si>
-  <si>
-    <t>0.08015828392082974</t>
-  </si>
-  <si>
-    <t>0.06887624018171057</t>
-  </si>
-  <si>
-    <t>0.05023090796976311</t>
-  </si>
-  <si>
-    <t>0.04545214038221144</t>
-  </si>
-  <si>
-    <t>0.49073502662212337</t>
-  </si>
-  <si>
-    <t>0.3749044510422283</t>
-  </si>
-  <si>
-    <t>0.30134510246688856</t>
-  </si>
-  <si>
-    <t>0.2579160717372474</t>
-  </si>
-  <si>
-    <t>0.20938613952742752</t>
-  </si>
-  <si>
-    <t>0.17684562462789882</t>
-  </si>
-  <si>
-    <t>0.14606877642322857</t>
-  </si>
-  <si>
-    <t>0.11830835351679926</t>
-  </si>
-  <si>
-    <t>0.09698117374513972</t>
-  </si>
-  <si>
-    <t>0.0680761317388931</t>
-  </si>
-  <si>
-    <t>0.0587307388951329</t>
-  </si>
-  <si>
-    <t>0.48801760466394134</t>
-  </si>
-  <si>
-    <t>0.4159947566989979</t>
-  </si>
-  <si>
-    <t>0.32876961946224487</t>
-  </si>
-  <si>
-    <t>0.2830960714333575</t>
-  </si>
-  <si>
-    <t>0.2251264820485773</t>
-  </si>
-  <si>
-    <t>0.1901042535445608</t>
-  </si>
-  <si>
-    <t>0.16197608293371346</t>
-  </si>
-  <si>
-    <t>0.1297233673502297</t>
-  </si>
-  <si>
-    <t>0.10933891294193604</t>
-  </si>
-  <si>
-    <t>0.07598508116370914</t>
-  </si>
-  <si>
-    <t>0.06422551998589987</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>WhitespaceAnalyzer</t>
   </si>
@@ -191,6 +50,21 @@
   </si>
   <si>
     <t>EnglishAnalyzer with StopWord</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>StandardAnalyzer</t>
+  </si>
+  <si>
+    <t>EnglishAnalyzer</t>
+  </si>
+  <si>
+    <t>EnglishAnalyzer with personal StopWord list</t>
   </si>
 </sst>
 </file>
@@ -288,11 +162,967 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-CH"/>
-              <a:t>Precison vs Recall</a:t>
+              <a:t>Recall / Precision</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WhitespaceAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.39371958911568899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39371958911568899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30916891870151603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30916891870151603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22835289827251501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22835289827251501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.156670263660312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.156670263660312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.123788776237718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.123788776237718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.108415723401854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.108415723401854</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2414272907089294E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2414272907089294E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.49285613456163E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.49285613456163E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7450242564527997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7450242564527997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1928736736241201E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1928736736241201E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9397971420790399E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-6F8B-430A-AF43-880A336969FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StandardAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.42884116951185403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42884116951185403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31401351262272498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31401351262272498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22690692798608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22690692798608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.183488514284979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.183488514284979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.151698304430472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.151698304430472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.119734741919341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.119734741919341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9550391345290895E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9550391345290895E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0158283920829701E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0158283920829701E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8876240181710499E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8876240181710499E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-6F8B-430A-AF43-880A336969FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil6!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EnglishAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil6!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil6!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49073502662212298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49073502662212298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37490445104222803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37490445104222803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.301345102466888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.301345102466888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25791607173724701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25791607173724701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20938613952742699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20938613952742699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17684562462789799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17684562462789799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14606877642322799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14606877642322799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.118308353516799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.118308353516799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6981173745139704E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6981173745139704E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8076131738893098E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8076131738893098E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8730738895132903E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-6F8B-430A-AF43-880A336969FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil7!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EnglishAnalyzer with personal StopWord list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil7!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil7!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.48801760466394101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48801760466394101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41599475669899699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41599475669899699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32876961946224398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32876961946224398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28309607143335702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28309607143335702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22512648204857699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22512648204857699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19010425354456001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19010425354456001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16197608293371299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16197608293371299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12972336735022899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12972336735022899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.109338912941936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.109338912941936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5985081163709098E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.5985081163709098E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4225519985899801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-6F8B-430A-AF43-880A336969FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="937339408"/>
+        <c:axId val="934627712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="937339408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934627712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="934627712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937339408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -325,25 +1155,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WhitespaceAnalyzer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -354,12 +1173,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$B$1:$L$1</c:f>
+              <c:f>Feuil4!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -367,432 +1186,141 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$L$2</c:f>
+              <c:f>Feuil4!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.39371958911568899</c:v>
+                  <c:v>0.42884116951185403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30916891870151603</c:v>
+                  <c:v>0.42884116951185403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22835289827251501</c:v>
+                  <c:v>0.31401351262272498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.156670263660312</c:v>
+                  <c:v>0.31401351262272498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.123788776237718</c:v>
+                  <c:v>0.22690692798608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.108415723401854</c:v>
+                  <c:v>0.22690692798608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2414272907089294E-2</c:v>
+                  <c:v>0.183488514284979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.49285613456163E-2</c:v>
+                  <c:v>0.183488514284979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7450242564527997E-2</c:v>
+                  <c:v>0.151698304430472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1928736736241201E-2</c:v>
+                  <c:v>0.151698304430472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9397971420790399E-2</c:v>
+                  <c:v>0.119734741919341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.119734741919341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9550391345290895E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9550391345290895E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0158283920829701E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0158283920829701E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8876240181710499E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8876240181710499E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0230907969763101E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8CB7-4D85-A159-D27366910E14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StandardAnalyzer </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.42884116951185403</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31401351262272498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22690692798608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.183488514284979</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.151698304430472</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.119734741919341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9550391345290895E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0158283920829701E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8876240181710499E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0230907969763101E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5452140382211403E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CB7-4D85-A159-D27366910E14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EnglishAnalyzer </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.49073502662212298</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37490445104222803</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.301345102466888</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25791607173724701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20938613952742699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17684562462789799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14606877642322799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.118308353516799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6981173745139704E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8076131738893098E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.8730738895132903E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8CB7-4D85-A159-D27366910E14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EnglishAnalyzer with StopWord</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.48801760466394101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41599475669899699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32876961946224398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28309607143335702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22512648204857699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19010425354456001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16197608293371299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12972336735022899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.109338912941936</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.5985081163709098E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.4225519985899801E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8CB7-4D85-A159-D27366910E14}"/>
+              <c16:uniqueId val="{00000000-D4B4-425C-8EDC-101F316C26D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -804,72 +1332,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="828317327"/>
-        <c:axId val="627525599"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="828317327"/>
+        <c:axId val="854986896"/>
+        <c:axId val="850309424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="854986896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Recall</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -879,8 +1365,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -907,18 +1393,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627525599"/>
+        <c:crossAx val="850309424"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="627525599"/>
+        <c:axId val="850309424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -936,69 +1418,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Precision</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1022,9 +1455,1316 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828317327"/>
+        <c:crossAx val="854986896"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StandardAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.42884116951185403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42884116951185403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31401351262272498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31401351262272498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22690692798608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22690692798608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.183488514284979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.183488514284979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.151698304430472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.151698304430472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.119734741919341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.119734741919341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9550391345290895E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9550391345290895E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0158283920829701E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0158283920829701E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8876240181710499E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8876240181710499E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0230907969763101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91B1-4920-B1B2-CD96A5D98650}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="854966096"/>
+        <c:axId val="850294448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="854966096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850294448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="850294448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854966096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil6!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EnglishAnalyzer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil6!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil6!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49073502662212298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49073502662212298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37490445104222803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37490445104222803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.301345102466888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.301345102466888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25791607173724701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25791607173724701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20938613952742699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20938613952742699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17684562462789799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17684562462789799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14606877642322799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14606877642322799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.118308353516799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.118308353516799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6981173745139704E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6981173745139704E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8076131738893098E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8076131738893098E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8730738895132903E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11C7-4FFA-8F4C-7F350811F677}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="945096464"/>
+        <c:axId val="934619392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="945096464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934619392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="934619392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945096464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil7!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EnglishAnalyzer with personal StopWord list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil7!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil7!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.48801760466394101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48801760466394101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41599475669899699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41599475669899699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32876961946224398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32876961946224398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28309607143335702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28309607143335702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22512648204857699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22512648204857699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19010425354456001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19010425354456001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16197608293371299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16197608293371299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12972336735022899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12972336735022899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.109338912941936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.109338912941936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5985081163709098E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.5985081163709098E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4225519985899801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-164E-4DFF-A435-205195193EC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="937339408"/>
+        <c:axId val="934627712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="937339408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934627712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="934627712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937339408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1149,8 +2889,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1177,8 +3037,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1258,11 +3118,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1273,11 +3128,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1289,7 +3139,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1309,9 +3159,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1324,10 +3171,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1367,22 +3214,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1487,8 +3335,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1620,23 +3468,240 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1646,6 +3711,1349 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1669,23 +5077,182 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52989D9-AE0E-4C7A-B9D2-12A91D6B89D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Graphique 14">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480F0B60-B023-4BEB-92AE-9ACEB9C9046F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9277761B-FA3A-4DDC-AF80-13FF8D81C189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF75540-EF88-444D-8BB7-2FA35DC4025F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F6D70E-9317-4188-8223-4BEE0AFAE7FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DA1180-D671-47E7-9813-53EDAD0934CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,10 +5570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E30AC6-70BB-4618-A1C8-C250C582F8B6}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +5584,7 @@
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -2056,7 +5624,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.39371958911568899</v>
@@ -2094,7 +5662,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.42884116951185403</v>
@@ -2132,7 +5700,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.49073502662212298</v>
@@ -2170,7 +5738,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.48801760466394101</v>
@@ -2319,173 +5887,876 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759F2E5-8792-4E91-820D-23FB0CE13099}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EC883-D0CC-4FE3-9E0E-A2883D7A425B}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.39371958911568899</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.39371958911568899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.30916891870151603</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.39371958911568899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.22835289827251501</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.30916891870151603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.156670263660312</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.30916891870151603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.123788776237718</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22835289827251501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.108415723401854</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22835289827251501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.2414272907089294E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.156670263660312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.49285613456163E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.156670263660312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.7450242564527997E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.123788776237718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.1928736736241201E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.123788776237718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B12" s="1">
+        <v>3.9397971420790399E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.108415723401854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.108415723401854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.2414272907089294E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.2414272907089294E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.49285613456163E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.49285613456163E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.7450242564527997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.7450242564527997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.1928736736241201E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.1928736736241201E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.9397971420790399E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E22">
+    <sortCondition descending="1" ref="E22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672CE87-2428-4933-B5AE-1FFC4887636E}">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.42884116951185403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.42884116951185403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.31401351262272498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.31401351262272498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22690692798608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22690692798608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.183488514284979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.183488514284979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.151698304430472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.151698304430472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.119734741919341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.119734741919341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.9550391345290895E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.9550391345290895E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.0158283920829701E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.0158283920829701E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.8876240181710499E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.8876240181710499E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0230907969763101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.0230907969763101E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.0230907969763101E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B101AC4-2C21-413E-973F-228D8ED5BA9F}">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.49073502662212298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.49073502662212298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.37490445104222803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.37490445104222803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.301345102466888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.301345102466888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25791607173724701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25791607173724701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.20938613952742699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.20938613952742699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.17684562462789799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.17684562462789799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.14606877642322799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.14606877642322799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.118308353516799</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.118308353516799</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.6981173745139704E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.6981173745139704E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.8076131738893098E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.8076131738893098E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.8730738895132903E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0EB63B-9677-45CD-B6DE-92136D7B159B}">
+  <sheetPr codeName="Feuil7"/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.48801760466394101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.48801760466394101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.41599475669899699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.41599475669899699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.32876961946224398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.32876961946224398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.28309607143335702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.28309607143335702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.22512648204857699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.22512648204857699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.19010425354456001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.19010425354456001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.16197608293371299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.16197608293371299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.12972336735022899</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.12972336735022899</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.109338912941936</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.109338912941936</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.5985081163709098E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.5985081163709098E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.4225519985899801E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RecallVsPrecision.xlsx
+++ b/RecallVsPrecision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romain.capocasa\Documents\InfData\InfDataLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB6DF45-E1B2-473F-89F7-A2E43EF42F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD747392-5AC7-4017-A114-983E56DC9447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A1DD393-CAF5-43A1-94D9-C8BEC9791A49}"/>
   </bookViews>
@@ -148,7 +148,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -161,7 +161,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CH"/>
+              <a:rPr lang="fr-CH" sz="1800" b="1"/>
               <a:t>Recall / Precision</a:t>
             </a:r>
           </a:p>
@@ -5083,8 +5083,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -5896,7 +5896,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
